--- a/biology/Zoologie/Colibri_de_Stübel/Colibri_de_Stübel.xlsx
+++ b/biology/Zoologie/Colibri_de_Stübel/Colibri_de_Stübel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_de_St%C3%BCbel</t>
+          <t>Colibri_de_Stübel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxypogon stuebelii
-Le colibri de Stübel (Oxypogon stuebelii) est une espèce d'oiseaux-mouches[1].
+Le colibri de Stübel (Oxypogon stuebelii) est une espèce d'oiseaux-mouches.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_de_St%C3%BCbel</t>
+          <t>Colibri_de_Stübel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie[1]. Elle se rencontre entre 3 000 et 5 200 m d'altitude dans le parc national naturel de Los Nevados[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre entre 3 000 et 5 200 m d'altitude dans le parc national naturel de Los Nevados.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_de_St%C3%BCbel</t>
+          <t>Colibri_de_Stübel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxypogon guerinii stuebelii a été élevée au rang d'espèce à la suite des travaux de Collar et Salaman en 2013[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxypogon guerinii stuebelii a été élevée au rang d'espèce à la suite des travaux de Collar et Salaman en 2013.
 </t>
         </is>
       </c>
